--- a/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C40639-690F-43B0-B770-E6EF081E6A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2F1503-8C1D-4C8B-B1B0-C22AB7FFB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F55F071-36BF-4BEC-84CF-2870984D1B66}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52663E7F-CE8F-493B-B440-6F999E54DE09}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="260">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>77,3%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>81,25%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,67 +158,70 @@
     <t>22,01%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>83,87%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,43%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -227,7 +230,7 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -236,7 +239,7 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -251,55 +254,55 @@
     <t>25,31%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>79,61%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -314,70 +317,64 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
     <t>33,37%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>66,63%</t>
   </si>
   <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -386,13 +383,13 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -407,139 +404,148 @@
     <t>30,32%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>Jaen</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>13,4%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>71,82%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -551,94 +557,97 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>Malaga</t>
   </si>
   <si>
     <t>25,85%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>20,7%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>78,54%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -650,166 +659,151 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>28,95%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>75,56%</t>
   </si>
   <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,09%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1227,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4A322-C739-42DE-8B6F-F314CA14391A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900CF0ED-96C0-4DCB-AFC2-DCA4EB4F5935}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,10 +1656,10 @@
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
@@ -1674,13 +1668,13 @@
         <v>196094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -1689,13 +1683,13 @@
         <v>358818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1704,13 @@
         <v>2048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1725,13 +1719,13 @@
         <v>7126</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1740,13 +1734,13 @@
         <v>9174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1776,13 +1770,13 @@
         <v>795</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1791,13 +1785,13 @@
         <v>795</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1847,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1865,13 +1859,13 @@
         <v>24723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1880,13 +1874,13 @@
         <v>26240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1895,13 +1889,13 @@
         <v>50962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1910,13 @@
         <v>72941</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>189</v>
@@ -1931,13 +1925,13 @@
         <v>128409</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>275</v>
@@ -1946,13 +1940,13 @@
         <v>201351</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1988,7 +1982,7 @@
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2003,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2033,13 +2027,13 @@
         <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2054,7 +2048,7 @@
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,7 +2104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2122,13 +2116,13 @@
         <v>49106</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -2137,13 +2131,13 @@
         <v>70701</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -2152,13 +2146,13 @@
         <v>119807</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2167,13 @@
         <v>98044</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>209</v>
@@ -2188,13 +2182,13 @@
         <v>135231</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>301</v>
@@ -2203,13 +2197,13 @@
         <v>233275</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,7 +2224,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2239,13 +2233,13 @@
         <v>1229</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2254,13 +2248,13 @@
         <v>1229</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2275,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2296,7 +2290,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2311,7 +2305,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2361,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2373,13 @@
         <v>23664</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2394,13 +2388,13 @@
         <v>12568</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2409,13 +2403,13 @@
         <v>36232</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2424,13 @@
         <v>51533</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -2445,13 +2439,13 @@
         <v>62351</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -2460,13 +2454,13 @@
         <v>113884</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2475,13 @@
         <v>2845</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2496,13 +2490,13 @@
         <v>4437</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2511,13 +2505,13 @@
         <v>7282</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2532,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2553,7 +2547,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2568,7 +2562,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2651,7 @@
         <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -2666,13 +2660,13 @@
         <v>56606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2681,13 @@
         <v>95045</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>169</v>
@@ -2702,13 +2696,13 @@
         <v>97055</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -2717,13 +2711,13 @@
         <v>192099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2759,7 +2753,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2774,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2783,13 @@
         <v>813</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2810,7 +2804,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2819,13 +2813,13 @@
         <v>813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,7 +2875,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2893,13 +2887,13 @@
         <v>80675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
@@ -2908,13 +2902,13 @@
         <v>51893</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>125</v>
@@ -2923,13 +2917,13 @@
         <v>132568</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2938,13 @@
         <v>229163</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>370</v>
@@ -2959,13 +2953,13 @@
         <v>273939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>590</v>
@@ -2974,13 +2968,13 @@
         <v>503102</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2989,13 @@
         <v>2235</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3010,13 +3004,13 @@
         <v>1915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3025,13 +3019,13 @@
         <v>4150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3046,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3061,13 +3055,13 @@
         <v>744</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3076,13 +3070,13 @@
         <v>744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,7 +3132,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3150,13 +3144,13 @@
         <v>136853</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H39" s="7">
         <v>112</v>
@@ -3165,13 +3159,13 @@
         <v>101194</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M39" s="7">
         <v>220</v>
@@ -3180,13 +3174,13 @@
         <v>238048</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3195,13 @@
         <v>279063</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H40" s="7">
         <v>402</v>
@@ -3216,13 +3210,13 @@
         <v>319078</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M40" s="7">
         <v>626</v>
@@ -3231,13 +3225,13 @@
         <v>598142</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3246,13 @@
         <v>814</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3267,13 +3261,13 @@
         <v>1991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3282,13 +3276,13 @@
         <v>2805</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3303,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3339,7 +3333,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,10 +3506,10 @@
         <v>246</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -3524,10 +3518,10 @@
         <v>16698</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>250</v>
@@ -3542,10 +3536,10 @@
         <v>251</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3554,13 @@
         <v>813</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3575,13 +3569,13 @@
         <v>2156</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -3590,13 +3584,13 @@
         <v>2969</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,7 +3646,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2F1503-8C1D-4C8B-B1B0-C22AB7FFB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C339E1-2020-4DB6-A3BC-F29D7C99E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52663E7F-CE8F-493B-B440-6F999E54DE09}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2FC9508-32EC-4287-BEA3-2E76C3E152E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1221,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900CF0ED-96C0-4DCB-AFC2-DCA4EB4F5935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6095580E-0FDE-457C-8130-73D7358F2F75}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C339E1-2020-4DB6-A3BC-F29D7C99E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D39C4E-3775-4A91-A3A4-0DA15529047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2FC9508-32EC-4287-BEA3-2E76C3E152E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3577E57-32BD-473B-9519-0CBF66346B91}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="260">
   <si>
     <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -74,736 +74,742 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>9,58%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>32,84%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>40,18%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>28,95%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>75,56%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -1221,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6095580E-0FDE-457C-8130-73D7358F2F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73541C0D-5C41-4AF0-8618-0684CD7FC10E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1656,10 +1662,10 @@
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
@@ -1668,13 +1674,13 @@
         <v>196094</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
@@ -1683,13 +1689,13 @@
         <v>358818</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1710,13 @@
         <v>2048</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1719,13 +1725,13 @@
         <v>7126</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -1734,13 +1740,13 @@
         <v>9174</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1770,13 +1776,13 @@
         <v>795</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1785,13 +1791,13 @@
         <v>795</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1853,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1859,13 +1865,13 @@
         <v>24723</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1874,13 +1880,13 @@
         <v>26240</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1889,13 +1895,13 @@
         <v>50962</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,13 +1916,13 @@
         <v>72941</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="7">
         <v>189</v>
@@ -1925,13 +1931,13 @@
         <v>128409</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M15" s="7">
         <v>275</v>
@@ -1940,13 +1946,13 @@
         <v>201351</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1982,7 +1988,7 @@
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1997,7 +2003,7 @@
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2024,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2027,13 +2033,13 @@
         <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2048,7 +2054,7 @@
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2122,13 @@
         <v>49106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -2131,13 +2137,13 @@
         <v>70701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -2146,13 +2152,13 @@
         <v>119807</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2173,13 @@
         <v>98044</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>209</v>
@@ -2182,13 +2188,13 @@
         <v>135231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>301</v>
@@ -2197,13 +2203,13 @@
         <v>233275</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2230,7 @@
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2233,13 +2239,13 @@
         <v>1229</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2248,13 +2254,13 @@
         <v>1229</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2290,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2305,7 +2311,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2367,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2373,13 +2379,13 @@
         <v>23664</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2388,13 +2394,13 @@
         <v>12568</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -2403,13 +2409,13 @@
         <v>36232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2430,13 @@
         <v>51533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>135</v>
@@ -2439,13 +2445,13 @@
         <v>62351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>210</v>
@@ -2454,13 +2460,13 @@
         <v>113884</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2481,13 @@
         <v>2845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2490,13 +2496,13 @@
         <v>4437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -2505,13 +2511,13 @@
         <v>7282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2547,7 +2553,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2562,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2657,7 @@
         <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
@@ -2660,13 +2666,13 @@
         <v>56606</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2687,13 @@
         <v>95045</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>169</v>
@@ -2696,13 +2702,13 @@
         <v>97055</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
@@ -2711,13 +2717,13 @@
         <v>192099</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2753,7 +2759,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2768,7 +2774,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2789,13 @@
         <v>813</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2804,7 +2810,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2813,13 +2819,13 @@
         <v>813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +2881,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2887,13 +2893,13 @@
         <v>80675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
@@ -2902,13 +2908,13 @@
         <v>51893</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>125</v>
@@ -2917,13 +2923,13 @@
         <v>132568</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2944,13 @@
         <v>229163</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>370</v>
@@ -2953,13 +2959,13 @@
         <v>273939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>590</v>
@@ -2968,13 +2974,13 @@
         <v>503102</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2995,13 @@
         <v>2235</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -3004,13 +3010,13 @@
         <v>1915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -3019,13 +3025,13 @@
         <v>4150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3055,13 +3061,13 @@
         <v>744</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3070,13 +3076,13 @@
         <v>744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3138,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3144,13 +3150,13 @@
         <v>136853</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" s="7">
         <v>112</v>
@@ -3159,13 +3165,13 @@
         <v>101194</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M39" s="7">
         <v>220</v>
@@ -3174,13 +3180,13 @@
         <v>238048</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3201,13 @@
         <v>279063</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H40" s="7">
         <v>402</v>
@@ -3210,13 +3216,13 @@
         <v>319078</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M40" s="7">
         <v>626</v>
@@ -3225,13 +3231,13 @@
         <v>598142</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3252,13 @@
         <v>814</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
@@ -3261,13 +3267,13 @@
         <v>1991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -3276,13 +3282,13 @@
         <v>2805</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3309,7 @@
         <v>32</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -3333,7 +3339,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,10 +3512,10 @@
         <v>246</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -3518,10 +3524,10 @@
         <v>16698</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>250</v>
@@ -3536,10 +3542,10 @@
         <v>251</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3560,13 @@
         <v>813</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3569,13 +3575,13 @@
         <v>2156</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -3584,13 +3590,13 @@
         <v>2969</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,7 +3652,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D39C4E-3775-4A91-A3A4-0DA15529047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{924F95A7-A22E-4193-B89B-F3A380AD0D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C3577E57-32BD-473B-9519-0CBF66346B91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A781D791-E9ED-494E-B164-9014ABAAD7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -155,151 +155,151 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -311,508 +311,508 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
     <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73541C0D-5C41-4AF0-8618-0684CD7FC10E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4307B2-95B4-44BC-9111-F0CD4C75C473}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>28487</v>
+        <v>33686</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>17067</v>
+        <v>19901</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1378,7 @@
         <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>45554</v>
+        <v>53587</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1399,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>97005</v>
+        <v>120580</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1414,7 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>100456</v>
+        <v>106416</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1429,7 @@
         <v>320</v>
       </c>
       <c r="N5" s="7">
-        <v>197461</v>
+        <v>226996</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1552,7 +1552,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>37</v>
@@ -1567,7 +1567,7 @@
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1582,7 +1582,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>37</v>
@@ -1605,7 +1605,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46501</v>
+        <v>47486</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>39</v>
@@ -1620,7 +1620,7 @@
         <v>58</v>
       </c>
       <c r="I9" s="7">
-        <v>51199</v>
+        <v>47209</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>42</v>
@@ -1635,7 +1635,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="7">
-        <v>97700</v>
+        <v>94695</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>45</v>
@@ -1656,46 +1656,46 @@
         <v>126</v>
       </c>
       <c r="D10" s="7">
-        <v>162725</v>
+        <v>161795</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>257</v>
       </c>
       <c r="I10" s="7">
-        <v>196094</v>
+        <v>182613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>383</v>
       </c>
       <c r="N10" s="7">
-        <v>358818</v>
+        <v>344408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,46 +1707,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2048</v>
+        <v>1992</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>7126</v>
+        <v>6692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>9174</v>
+        <v>8684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,37 +1767,37 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>326</v>
       </c>
       <c r="I13" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -1839,7 +1839,7 @@
         <v>486</v>
       </c>
       <c r="N13" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>37</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1862,46 +1862,46 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>24723</v>
+        <v>24176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>26240</v>
+        <v>24701</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>50962</v>
+        <v>48877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>72941</v>
+        <v>70736</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>79</v>
@@ -1928,7 +1928,7 @@
         <v>189</v>
       </c>
       <c r="I15" s="7">
-        <v>128409</v>
+        <v>120280</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>82</v>
@@ -1943,7 +1943,7 @@
         <v>275</v>
       </c>
       <c r="N15" s="7">
-        <v>201351</v>
+        <v>191017</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>85</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>91</v>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>93</v>
@@ -2066,7 +2066,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>37</v>
@@ -2081,7 +2081,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>37</v>
@@ -2096,7 +2096,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>37</v>
@@ -2119,7 +2119,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>49106</v>
+        <v>47768</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>96</v>
@@ -2134,7 +2134,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>70701</v>
+        <v>120694</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>99</v>
@@ -2149,7 +2149,7 @@
         <v>106</v>
       </c>
       <c r="N19" s="7">
-        <v>119807</v>
+        <v>168462</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>102</v>
@@ -2170,7 +2170,7 @@
         <v>92</v>
       </c>
       <c r="D20" s="7">
-        <v>98044</v>
+        <v>93609</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>105</v>
@@ -2185,7 +2185,7 @@
         <v>209</v>
       </c>
       <c r="I20" s="7">
-        <v>135231</v>
+        <v>124757</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>108</v>
@@ -2200,7 +2200,7 @@
         <v>301</v>
       </c>
       <c r="N20" s="7">
-        <v>233275</v>
+        <v>218366</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>111</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1229</v>
+        <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>115</v>
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>1229</v>
+        <v>1109</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>117</v>
@@ -2323,7 +2323,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>37</v>
@@ -2338,7 +2338,7 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>37</v>
@@ -2353,7 +2353,7 @@
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>37</v>
@@ -2376,7 +2376,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>23664</v>
+        <v>21385</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>122</v>
@@ -2391,7 +2391,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>12568</v>
+        <v>11057</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>125</v>
@@ -2406,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>36232</v>
+        <v>32442</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>128</v>
@@ -2427,7 +2427,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>51533</v>
+        <v>46758</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>131</v>
@@ -2442,7 +2442,7 @@
         <v>135</v>
       </c>
       <c r="I25" s="7">
-        <v>62351</v>
+        <v>56572</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>134</v>
@@ -2457,16 +2457,16 @@
         <v>210</v>
       </c>
       <c r="N25" s="7">
-        <v>113884</v>
+        <v>103331</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,46 +2478,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2845</v>
+        <v>2561</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>4437</v>
+        <v>3733</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>7282</v>
+        <v>6293</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>37</v>
@@ -2595,7 +2595,7 @@
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>37</v>
@@ -2610,7 +2610,7 @@
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>37</v>
@@ -2633,7 +2633,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>34251</v>
+        <v>33498</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>152</v>
@@ -2648,7 +2648,7 @@
         <v>31</v>
       </c>
       <c r="I29" s="7">
-        <v>22355</v>
+        <v>20672</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>155</v>
@@ -2657,22 +2657,22 @@
         <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>71</v>
       </c>
       <c r="N29" s="7">
-        <v>56606</v>
+        <v>54171</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,46 +2684,46 @@
         <v>136</v>
       </c>
       <c r="D30" s="7">
-        <v>95045</v>
+        <v>91331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>169</v>
       </c>
       <c r="I30" s="7">
-        <v>97055</v>
+        <v>90280</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>305</v>
       </c>
       <c r="N30" s="7">
-        <v>192099</v>
+        <v>181611</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,16 +2786,16 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2810,22 +2810,22 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>37</v>
@@ -2852,7 +2852,7 @@
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>37</v>
@@ -2867,7 +2867,7 @@
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>37</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2890,46 +2890,46 @@
         <v>63</v>
       </c>
       <c r="D34" s="7">
-        <v>80675</v>
+        <v>81859</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
       </c>
       <c r="I34" s="7">
-        <v>51893</v>
+        <v>48467</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>125</v>
       </c>
       <c r="N34" s="7">
-        <v>132568</v>
+        <v>130326</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2941,13 @@
         <v>220</v>
       </c>
       <c r="D35" s="7">
-        <v>229163</v>
+        <v>227636</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>185</v>
@@ -2956,7 +2956,7 @@
         <v>370</v>
       </c>
       <c r="I35" s="7">
-        <v>273939</v>
+        <v>255919</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>186</v>
@@ -2971,7 +2971,7 @@
         <v>590</v>
       </c>
       <c r="N35" s="7">
-        <v>503102</v>
+        <v>483554</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>189</v>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>2235</v>
+        <v>2241</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>192</v>
@@ -3007,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>1915</v>
+        <v>1782</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>195</v>
@@ -3022,16 +3022,16 @@
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>4150</v>
+        <v>4023</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>196</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,37 +3052,37 @@
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>285</v>
       </c>
       <c r="D38" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>37</v>
@@ -3109,7 +3109,7 @@
         <v>436</v>
       </c>
       <c r="I38" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>37</v>
@@ -3124,7 +3124,7 @@
         <v>721</v>
       </c>
       <c r="N38" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>37</v>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3147,46 +3147,46 @@
         <v>108</v>
       </c>
       <c r="D39" s="7">
-        <v>136853</v>
+        <v>115198</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H39" s="7">
         <v>112</v>
       </c>
       <c r="I39" s="7">
-        <v>101194</v>
+        <v>82422</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M39" s="7">
         <v>220</v>
       </c>
       <c r="N39" s="7">
-        <v>238048</v>
+        <v>197620</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,46 +3198,46 @@
         <v>224</v>
       </c>
       <c r="D40" s="7">
-        <v>279063</v>
+        <v>438010</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7">
         <v>402</v>
       </c>
       <c r="I40" s="7">
-        <v>319078</v>
+        <v>265010</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M40" s="7">
         <v>626</v>
       </c>
       <c r="N40" s="7">
-        <v>598142</v>
+        <v>703019</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,46 +3249,46 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>814</v>
+        <v>708</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" s="7">
         <v>3</v>
       </c>
       <c r="I41" s="7">
-        <v>1991</v>
+        <v>1675</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
       </c>
       <c r="N41" s="7">
-        <v>2805</v>
+        <v>2384</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3351,7 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>37</v>
@@ -3366,7 +3366,7 @@
         <v>517</v>
       </c>
       <c r="I43" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>37</v>
@@ -3381,7 +3381,7 @@
         <v>850</v>
       </c>
       <c r="N43" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>37</v>
@@ -3404,46 +3404,46 @@
         <v>376</v>
       </c>
       <c r="D44" s="7">
-        <v>424259</v>
+        <v>405056</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H44" s="7">
         <v>414</v>
       </c>
       <c r="I44" s="7">
-        <v>353218</v>
+        <v>375123</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M44" s="7">
         <v>790</v>
       </c>
       <c r="N44" s="7">
-        <v>777477</v>
+        <v>780179</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,46 +3455,46 @@
         <v>1075</v>
       </c>
       <c r="D45" s="7">
-        <v>1085518</v>
+        <v>1250455</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H45" s="7">
         <v>1935</v>
       </c>
       <c r="I45" s="7">
-        <v>1312615</v>
+        <v>1201847</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M45" s="7">
         <v>3010</v>
       </c>
       <c r="N45" s="7">
-        <v>2398133</v>
+        <v>2452303</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,25 +3506,25 @@
         <v>8</v>
       </c>
       <c r="D46" s="7">
-        <v>7941</v>
+        <v>7502</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
       </c>
       <c r="I46" s="7">
-        <v>16698</v>
+        <v>14990</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>249</v>
@@ -3536,16 +3536,16 @@
         <v>32</v>
       </c>
       <c r="N46" s="7">
-        <v>24639</v>
+        <v>22492</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,46 +3557,46 @@
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>2156</v>
+        <v>2013</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>2969</v>
+        <v>2778</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3608,7 @@
         <v>1460</v>
       </c>
       <c r="D48" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>37</v>
@@ -3623,7 +3623,7 @@
         <v>2376</v>
       </c>
       <c r="I48" s="7">
-        <v>1684687</v>
+        <v>1593974</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>37</v>
@@ -3638,7 +3638,7 @@
         <v>3836</v>
       </c>
       <c r="N48" s="7">
-        <v>3203218</v>
+        <v>3257752</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>37</v>
